--- a/Document/Design.xlsx
+++ b/Document/Design.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Web3_2018\Document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BBA4E2-1F60-4314-883A-58FC73E29825}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Homepage – it’s the first page that your visitors see when they go to your website</t>
   </si>
@@ -37,12 +43,15 @@
   </si>
   <si>
     <t>Shop page – for companies that want to launch an eCommerce store</t>
+  </si>
+  <si>
+    <t>Tú</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -346,18 +355,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -365,34 +374,43 @@
     <col min="1" max="1" width="153" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Design.xlsx
+++ b/Document/Design.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quoc\Documents\GitHub\Web3_2018\Document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1899B9E1-CF61-4616-9E95-542EFB2F26FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Homepage – it’s the first page that your visitors see when they go to your website</t>
   </si>
@@ -37,17 +43,23 @@
   </si>
   <si>
     <t>Shop page – for companies that want to launch an eCommerce store</t>
+  </si>
+  <si>
+    <t>quoc</t>
+  </si>
+  <si>
+    <t>tu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -346,53 +358,71 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="153" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Design.xlsx
+++ b/Document/Design.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quoc\Documents\GitHub\Web3_2018\Document\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1899B9E1-CF61-4616-9E95-542EFB2F26FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Homepage – it’s the first page that your visitors see when they go to your website</t>
   </si>
@@ -43,23 +37,17 @@
   </si>
   <si>
     <t>Shop page – for companies that want to launch an eCommerce store</t>
-  </si>
-  <si>
-    <t>quoc</t>
-  </si>
-  <si>
-    <t>tu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -358,71 +346,53 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="153" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Design.xlsx
+++ b/Document/Design.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Web3_2018\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quoc\Documents\GitHub\Web3_2018\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BBA4E2-1F60-4314-883A-58FC73E29825}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4841FB-9A5F-431F-B740-A00459E6DABF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Homepage – it’s the first page that your visitors see when they go to your website</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Tú</t>
+  </si>
+  <si>
+    <t>quoc</t>
   </si>
 </sst>
 </file>
@@ -56,7 +59,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -365,31 +368,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="153" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -397,7 +409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -405,7 +417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
